--- a/140108 Netzstatistik.xlsx
+++ b/140108 Netzstatistik.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22520" tabRatio="853"/>
@@ -429,7 +429,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t> sie (meist unten am Seitenende) für Statistiken angeben. Man sieht, dass sich alles unter der 10.000er Marke bewegt. Der Insulinclub sticht schon heraus, aber auch er ist eher klein. </a:t>
+            <a:t> sie (meist unten am Seitenende) für Statistiken angeben. Man sieht, dass sich alles unter der 10.000er Marke bewegt. Der Insulinclub sticht schon heraus - aber auch er ist eher klein. </a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="1100"/>
         </a:p>
